--- a/ig/ch-emed-epr/ValueSet-ch-emed-epr-time-quantity-unit-code.xlsx
+++ b/ig/ch-emed-epr/ValueSet-ch-emed-epr-time-quantity-unit-code.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from UCUM" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-emed-epr/ValueSet-ch-emed-epr-time-quantity-unit-code.xlsx
+++ b/ig/ch-emed-epr/ValueSet-ch-emed-epr-time-quantity-unit-code.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
